--- a/Data/model_outputs_baseline/UFA/energy_use_SFH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/energy_use_SFH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>321696328.9114929</v>
+        <v>320832683.6293451</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>545147030.7872367</v>
+        <v>543683568.9383787</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>706923934.4678298</v>
+        <v>705026227.367323</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821209265.5142337</v>
+        <v>819004798.7871816</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899694630.7875566</v>
+        <v>897279203.132923</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>951237107.8821658</v>
+        <v>948683306.8596914</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>982661561.503834</v>
+        <v>980023239.4740628</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999213321.6781936</v>
+        <v>996530635.2514576</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004912838.977357</v>
+        <v>1002215090.413253</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1002831014.281152</v>
+        <v>1000138528.184327</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>995302454.0459507</v>
+        <v>992630376.5649307</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>984093615.0040047</v>
+        <v>981452096.1347277</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>970531960.1676586</v>
+        <v>967927119.3969524</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955607137.1106427</v>
+        <v>953042084.9786484</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940047769.816332</v>
+        <v>937524294.5563773</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>924384119.1982633</v>
+        <v>921902620.5509622</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>908994379.9211781</v>
+        <v>906554575.4054599</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>894140788.2180669</v>
+        <v>891741253.5737877</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>879999456.1870542</v>
+        <v>877637500.594054</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>866679826.2802184</v>
+        <v>864353454.2639425</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>854243000.6700717</v>
+        <v>851950329.0125175</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>842715159.4168974</v>
+        <v>840453140.8286724</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>832096126.5837951</v>
+        <v>829862410.6254325</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>822367055.2939255</v>
+        <v>820158887.4171901</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>813496484.0277963</v>
+        <v>811312045.2084663</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>805444930.5032787</v>
+        <v>803282200.1318997</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>798168688.7858298</v>
+        <v>796025343.9345939</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>791620501.1286217</v>
+        <v>789494836.9723977</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>785752065.1259769</v>
+        <v>783642584.5351431</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>780516637.400842</v>
+        <v>778421195.8768314</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>775867211.6205208</v>
+        <v>773784328.4904515</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>771760567.503127</v>
+        <v>769688546.6884012</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>768153872.4886838</v>
+        <v>766091280.6238554</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>765007335.8883872</v>
+        <v>762952964.9474822</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>762284251.8941975</v>
+        <v>760237204.529936</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>759950155.5153738</v>
+        <v>757909655.7883259</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>757972851.6817498</v>
+        <v>755938214.4875395</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>756323727.1515191</v>
+        <v>754293721.9092604</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>754976006.4962069</v>
+        <v>752949312.7676152</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>753905049.6444335</v>
+        <v>751880848.7886927</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>753087861.6704024</v>
+        <v>751065670.5904413</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>752504065.5543076</v>
+        <v>750483601.7851669</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>752135037.1360335</v>
+        <v>750115689.82935</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>751963426.0819666</v>
+        <v>749944840.8343694</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>751974042.369833</v>
+        <v>749955943.9535385</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>752152894.8687495</v>
+        <v>750134497.5483384</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>752487585.3637956</v>
+        <v>750468267.346806</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>752965800.3755485</v>
+        <v>750945508.0147091</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>753577866.654878</v>
+        <v>751555455.2626195</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>754313995.9259857</v>
+        <v>752289738.1217983</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>755165887.0930346</v>
+        <v>753139319.5361501</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>756126130.8566886</v>
+        <v>754096992.5351295</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>757187590.5634738</v>
+        <v>755154874.9855461</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>758344222.3052686</v>
+        <v>756308084.5837587</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>759589727.3398814</v>
+        <v>757550176.5910543</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>760919644.0655501</v>
+        <v>758876384.4475913</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>762328522.2875382</v>
+        <v>760281412.5962405</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>763813198.8002729</v>
+        <v>761762062.1926886</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>765369346.5149313</v>
+        <v>763313987.7609446</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>766994339.9057579</v>
+        <v>764934326.8704726</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>768685125.5429215</v>
+        <v>766620504.6181158</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>770439025.2046597</v>
+        <v>768369843.9761165</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>772253350.9320786</v>
+        <v>770179726.0675938</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>774126305.0243218</v>
+        <v>772047734.4661999</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>776056190.1358473</v>
+        <v>773972566.5790079</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>778041756.1569197</v>
+        <v>775952257.6768795</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>780080927.3978571</v>
+        <v>777986143.5067421</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>782171487.3738464</v>
+        <v>780071380.2881181</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>784313902.7929085</v>
+        <v>782208274.579893</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>786506626.9306905</v>
+        <v>784395310.7293532</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>788748691.8337065</v>
+        <v>786631465.5456027</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>791039601.4665933</v>
+        <v>788916446.6815866</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>793378381.1152692</v>
+        <v>791249019.0182581</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>795764496.1984787</v>
+        <v>793628802.1075795</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>798197898.6175216</v>
+        <v>796055759.740387</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>800677772.9775612</v>
+        <v>798529264.8446801</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>803203577.7993635</v>
+        <v>801048450.4736011</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>805775332.0337833</v>
+        <v>803613184.2237847</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>808393376.1056945</v>
+        <v>806223946.7820215</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>811056607.966195</v>
+        <v>808879954.3076305</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>813764895.7667443</v>
+        <v>811581303.3843639</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>816519078.4162636</v>
+        <v>814327659.0884874</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>819318408.9104863</v>
+        <v>817120133.9653589</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>822162483.9089242</v>
+        <v>819956428.9828418</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>825050981.1604127</v>
+        <v>822837208.6717503</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>827985272.0641186</v>
+        <v>825763395.6772486</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>830964033.7360733</v>
+        <v>828733572.218801</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>833987774.8876154</v>
+        <v>831748729.0416982</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>837056483.3765279</v>
+        <v>834809322.0662824</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>840170657.1557376</v>
+        <v>837915254.2491691</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>843329875.4765456</v>
+        <v>841065660.7309284</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>846534079.1800197</v>
+        <v>844262170.0642986</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>849783547.5152289</v>
+        <v>847502973.3421254</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>853078063.1742901</v>
+        <v>850789248.1987039</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>856417137.7297568</v>
+        <v>854120105.9605982</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>859802142.1875452</v>
+        <v>857495643.1825938</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>863231960.0772578</v>
+        <v>860916172.1004753</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>866706750.2969329</v>
+        <v>864381622.0801623</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>870226328.1262816</v>
+        <v>867892026.8395512</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>873789914.8897922</v>
+        <v>871445943.3124588</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>877398823.4671471</v>
+        <v>875045045.3758259</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>881052069.8701539</v>
+        <v>878688193.5646372</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>884748930.3759741</v>
+        <v>882374818.761668</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>888489968.5589488</v>
+        <v>886106023.1035231</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>892274774.0250621</v>
+        <v>889880702.0391018</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>896103116.5792919</v>
+        <v>893698695.3743135</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>899973910.2853917</v>
+        <v>897559198.9521784</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>903887519.4943888</v>
+        <v>901462924.4908555</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>907843471.2223711</v>
+        <v>905408249.9755499</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>911841737.3913821</v>
+        <v>909395382.1034172</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>915881079.2169988</v>
+        <v>913423669.7102401</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>919961208.2558216</v>
+        <v>917492370.6765049</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>924081170.5499229</v>
+        <v>921601155.272404</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>928240851.2752264</v>
+        <v>925749788.8602355</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>932439046.7322114</v>
+        <v>929937468.49072</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>936676542.6426871</v>
+        <v>934163411.2127433</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>940951282.5393516</v>
+        <v>938426577.1607488</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>945262438.4363792</v>
+        <v>942726359.3365871</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>949610266.1664257</v>
+        <v>947062040.1862607</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>953993238.830984</v>
+        <v>951432732.1620554</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>958409555.503559</v>
+        <v>955837068.6290215</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>962859135.6983721</v>
+        <v>960275111.9353689</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>967341139.7191665</v>
+        <v>964745453.6829661</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>971854293.7715812</v>
+        <v>969246846.0120201</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>976398424.9574057</v>
+        <v>973778545.7448004</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>980971788.6958468</v>
+        <v>978339997.2138005</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>985573478.1010134</v>
+        <v>982929906.7279254</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>990202789.9443514</v>
+        <v>987546614.5527565</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>994858786.4463086</v>
+        <v>992189371.9356829</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>999538531.1070333</v>
+        <v>996857367.1873202</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1004243552.583912</v>
+        <v>1001549114.492108</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1008971134.916039</v>
+        <v>1006263804.016737</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1013720889.447616</v>
+        <v>1011000611.110556</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1018491984.767493</v>
+        <v>1015758883.897527</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1023283416.122449</v>
+        <v>1020537539.872285</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1028092956.531931</v>
+        <v>1025334638.488806</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1032921280.104182</v>
+        <v>1030149996.237325</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1037767134.092021</v>
+        <v>1034982502.94555</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1042629594.249861</v>
+        <v>1039831880.630353</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1047508435.351712</v>
+        <v>1044697577.801729</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1052402923.698261</v>
+        <v>1049578281.393858</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1057312167.682063</v>
+        <v>1054473600.488659</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1062235874.572087</v>
+        <v>1059384067.899951</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1067173414.139335</v>
+        <v>1064308678.348072</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1072125015.724917</v>
+        <v>1069247222.100965</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1077090714.191574</v>
+        <v>1074200312.153075</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1082071047.37361</v>
+        <v>1079167034.352395</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1087065456.490887</v>
+        <v>1084147991.123964</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1092074186.533627</v>
+        <v>1089143079.60378</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1097098734.991971</v>
+        <v>1094153560.350338</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1102138742.534879</v>
+        <v>1099179901.272234</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1107195152.747394</v>
+        <v>1104223396.615363</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1112270229.160151</v>
+        <v>1109284114.887313</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1117362666.999966</v>
+        <v>1114363814.623621</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1122475941.144506</v>
+        <v>1119463595.623472</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1127611009.823308</v>
+        <v>1124585902.692801</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1132770387.65151</v>
+        <v>1129730894.781516</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1137955551.083054</v>
+        <v>1134902330.092355</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1143168601.572531</v>
+        <v>1140101234.225875</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1148411092.869024</v>
+        <v>1145329827.847866</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1153686377.294302</v>
+        <v>1150590356.224264</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1158996783.990142</v>
+        <v>1155887139.550074</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1164345337.676832</v>
+        <v>1161221455.168866</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1169735400.35653</v>
+        <v>1166596685.226055</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1175170578.322445</v>
+        <v>1172016802.872653</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1180653896.656855</v>
+        <v>1177484327.747462</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1186187883.845622</v>
+        <v>1183003478.599682</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1191777114.791707</v>
+        <v>1188577788.035978</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1197425364.309394</v>
+        <v>1194211095.85482</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1203136679.494876</v>
+        <v>1199907819.681182</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1208915286.513704</v>
+        <v>1205671466.476532</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1214765198.93157</v>
+        <v>1211506080.08209</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1220692608.941035</v>
+        <v>1217417188.830701</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1226700466.67653</v>
+        <v>1223408919.142153</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1232793428.292199</v>
+        <v>1229486519.568593</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1238976548.46199</v>
+        <v>1235652819.538308</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1245254690.851371</v>
+        <v>1241914804.485607</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1251633205.23132</v>
+        <v>1248276430.548904</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1258117012.444554</v>
+        <v>1254743207.536293</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1264711561.360771</v>
+        <v>1261320171.47746</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1271421840.936767</v>
+        <v>1268012219.431098</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1278254099.527853</v>
+        <v>1274826268.926373</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1285213680.426326</v>
+        <v>1281766979.191756</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1292306086.529712</v>
+        <v>1288839359.689478</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1299536643.405468</v>
+        <v>1296049516.771633</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1306910791.821835</v>
+        <v>1303403770.790087</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1314435093.030324</v>
+        <v>1310907274.01427</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1322114870.482848</v>
+        <v>1318566755.655625</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1329956875.60438</v>
+        <v>1326388499.136126</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1337967494.268042</v>
+        <v>1334377638.733737</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1346153243.157853</v>
+        <v>1342541249.882944</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1354520322.856605</v>
+        <v>1350885188.435004</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1363075004.982468</v>
+        <v>1359416171.400425</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1371824211.169727</v>
+        <v>1368141734.008108</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1380774021.754443</v>
+        <v>1377067812.472635</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1389932671.887054</v>
+        <v>1386202699.735112</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1399307118.121422</v>
+        <v>1395551423.40055</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1408902929.209558</v>
+        <v>1405121813.607249</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1418729412.557747</v>
+        <v>1414922263.987684</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1428793720.434386</v>
+        <v>1424959305.009255</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1439102823.154142</v>
+        <v>1435241694.082713</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1449666031.620148</v>
+        <v>1445775973.620147</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1460490181.689061</v>
+        <v>1456570523.666315</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1471583984.663865</v>
+        <v>1467634392.534004</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1482955331.382205</v>
+        <v>1478975968.482968</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1494613610.827075</v>
+        <v>1490602668.812675</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1506567116.675449</v>
+        <v>1502524799.636496</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1518825699.984878</v>
+        <v>1514750896.696215</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1531398091.511411</v>
+        <v>1527290037.130324</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1544294370.008875</v>
+        <v>1540151816.381321</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1557522698.194815</v>
+        <v>1553345028.433429</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1571095155.692433</v>
+        <v>1566881331.064074</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1585020286.65839</v>
+        <v>1580769092.432836</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1599308875.499838</v>
+        <v>1595018808.3524</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1613971710.41486</v>
+        <v>1609642396.876194</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1629020130.724221</v>
+        <v>1624650988.17964</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1644465890.442531</v>
+        <v>1640054982.404366</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1660319318.080268</v>
+        <v>1655866264.605089</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1676591388.264036</v>
+        <v>1672095528.382785</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1693295613.453178</v>
+        <v>1688754919.944471</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1710443761.83267</v>
+        <v>1705856912.769312</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1728048304.770756</v>
+        <v>1723414620.17989</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1746122624.708687</v>
+        <v>1741440725.183285</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1764679117.404231</v>
+        <v>1759947695.84816</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1783731062.848109</v>
+        <v>1778948585.008741</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1803292604.555369</v>
+        <v>1798457639.312572</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1823378340.450348</v>
+        <v>1818488855.073313</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1844000660.794187</v>
+        <v>1839056261.307101</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1865175899.985021</v>
+        <v>1860174823.747348</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1886917850.554844</v>
+        <v>1881858532.702322</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1909243237.23848</v>
+        <v>1904124621.618688</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1932165499.966628</v>
+        <v>1926985167.062189</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1955702533.844806</v>
+        <v>1950458644.981995</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1979868900.025696</v>
+        <v>1974559218.219373</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2004679686.026235</v>
+        <v>1999305377.389629</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2030156155.2654</v>
+        <v>2024712902.252642</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2056311984.629621</v>
+        <v>2050798431.802059</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2083165895.509749</v>
+        <v>2077581434.392832</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2110735685.38511</v>
+        <v>2105077651.701063</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2139040331.663396</v>
+        <v>2133305399.926037</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2168096820.131165</v>
+        <v>2162283908.245737</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2197924301.867558</v>
+        <v>2192031306.11341</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2228543684.052345</v>
+        <v>2222567984.474957</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2259971702.42095</v>
+        <v>2253912649.745049</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2292231737.481368</v>
+        <v>2286085385.522456</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2325341249.559302</v>
+        <v>2319107214.559227</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2359323545.465859</v>
+        <v>2352998174.556345</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2394198165.759937</v>
+        <v>2387779704.288391</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2429987471.77564</v>
+        <v>2423473602.224041</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2466714194.215052</v>
+        <v>2460101382.901217</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2504399234.208691</v>
+        <v>2497686104.764171</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2543066898.713993</v>
+        <v>2536250327.179541</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2582739706.502198</v>
+        <v>2575817008.674212</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2623442546.40793</v>
+        <v>2616410428.408576</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2665198663.832334</v>
+        <v>2658054241.089703</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2708033219.496138</v>
+        <v>2700774692.8044</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2751971781.155077</v>
+        <v>2744594786.639007</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2797039798.856542</v>
+        <v>2789539990.800349</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2843265127.923234</v>
+        <v>2835639580.925491</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2890670747.344705</v>
+        <v>2882918644.166717</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>2939286655.608123</v>
+        <v>2931404250.056732</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2989140052.990345</v>
+        <v>2981124220.769243</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3040260183.794996</v>
+        <v>3032106853.391906</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>3092675383.893847</v>
+        <v>3084381336.495701</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3146415566.047045</v>
+        <v>3137977214.609028</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3201510578.97709</v>
+        <v>3192923763.715858</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3257990209.121811</v>
+        <v>3249250482.290567</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3315887295.293533</v>
+        <v>3306992759.844592</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>3375234970.538729</v>
+        <v>3366179970.650125</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3436062568.907763</v>
+        <v>3426845708.152179</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3498406705.179766</v>
+        <v>3489021958.517479</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>3562300448.145476</v>
+        <v>3552744373.013735</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>3627778814.98644</v>
+        <v>3618046602.710989</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3694876284.55554</v>
+        <v>3684964828.426825</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>3763630165.358956</v>
+        <v>3753534657.996465</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>3834078552.460108</v>
+        <v>3823794466.406458</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>3906258796.380641</v>
+        <v>3895781334.688978</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>3980209621.108347</v>
+        <v>3969534095.650112</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4055971648.097627</v>
+        <v>4045092196.35963</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>4133584385.628708</v>
+        <v>4122496960.8299</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>4213089691.311082</v>
+        <v>4201788665.195078</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4294530639.890024</v>
+        <v>4283010893.911736</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4377950429.407224</v>
+        <v>4366207304.612661</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4463394584.915979</v>
+        <v>4451421409.152271</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4550907081.803047</v>
+        <v>4538699226.001583</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4640534393.039248</v>
+        <v>4628087057.452247</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4732327843.596069</v>
+        <v>4719633165.002514</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>4826333906.824351</v>
+        <v>4813386955.77563</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>4922602425.873974</v>
+        <v>4909398072.785992</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>5021186066.581924</v>
+        <v>5007716706.633301</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5122136826.201372</v>
+        <v>5108395500.62355</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5225508621.867659</v>
+        <v>5211490353.094578</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5331355832.952961</v>
+        <v>5317055630.539367</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5439738434.462454</v>
+        <v>5425147898.75552</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>5550714480.911188</v>
+        <v>5535823922.655643</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5664341736.618303</v>
+        <v>5649146911.080601</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5780682789.934044</v>
+        <v>5765174995.883694</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5899801265.949015</v>
+        <v>5883973918.630668</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>6021760942.833535</v>
+        <v>6005606198.329446</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>6146628340.19775</v>
+        <v>6130139926.040077</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6274474373.659437</v>
+        <v>6257641575.339355</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6402839643.716232</v>
+        <v>6385869114.805528</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6533148664.469282</v>
+        <v>6516129578.243227</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6665441800.609221</v>
+        <v>6648468832.905994</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>6799773623.262758</v>
+        <v>6782941245.706347</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6936193387.33218</v>
+        <v>6919598798.291002</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>7074750741.46104</v>
+        <v>7058494737.586756</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>7215500414.45383</v>
+        <v>7199682202.228195</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>7358497361.472691</v>
+        <v>7343222600.361702</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>7503796057.552533</v>
+        <v>7489171019.200836</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>7651454224.146757</v>
+        <v>7637588798.290782</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>7801532139.2355</v>
+        <v>7788536214.245218</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>7954087463.685974</v>
+        <v>7942076331.083033</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>8109185401.592392</v>
+        <v>8098276201.853456</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>8266889643.612047</v>
+        <v>8257202127.164759</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>8427264525.922071</v>
+        <v>8418923577.414961</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>8590379660.598778</v>
+        <v>8583509858.321607</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>8756306040.281166</v>
+        <v>8751034104.763681</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>8925113345.047638</v>
+        <v>8921573491.251329</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9096877368.293385</v>
+        <v>9095205707.257351</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9271676044.416519</v>
+        <v>9272008009.542561</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9449586610.139637</v>
+        <v>9452065281.533686</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9630689863.882545</v>
+        <v>9635461218.826473</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>9815069173.484974</v>
+        <v>9822282700.898525</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>10002813432.83174</v>
+        <v>10012622478.37793</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>10194009170.41238</v>
+        <v>10206572881.41971</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>10388748552.0162</v>
+        <v>10404226820.21857</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>10587125623.22264</v>
+        <v>10605684294.07867</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>10789238283.11991</v>
+        <v>10811049784.40886</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>10995190133.56632</v>
+        <v>11020424252.33796</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>11205083780.8514</v>
+        <v>11233919364.8312</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11419026739.1111</v>
+        <v>11451648136.61917</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>11637129341.65441</v>
+        <v>11673724030.4119</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>11859505585.66097</v>
+        <v>11900267660.82331</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>12086274935.64294</v>
+        <v>12131402397.86943</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>12317556419.48229</v>
+        <v>12367254231.69739</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>12553481659.56944</v>
+        <v>12607955179.00773</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>12794177412.02863</v>
+        <v>12853641727.36807</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>13039780930.79107</v>
+        <v>13104456621.02916</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>13290431596.56879</v>
+        <v>13360542995.81478</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>13546269876.71751</v>
+        <v>13622049485.46105</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>13807447642.38336</v>
+        <v>13889132979.0709</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14074115584.62208</v>
+        <v>14161953247.93431</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14346435260.33403</v>
+        <v>14440674319.88597</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14624568744.78249</v>
+        <v>14725468418.19143</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>14908688749.7161</v>
+        <v>15016510954.53125</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>15198970475.3583</v>
+        <v>15313989986.7804</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>15495596634.17188</v>
+        <v>15618093954.04659</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>15798756127.53574</v>
+        <v>15929015595.72492</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>16108641761.65726</v>
+        <v>16246959683.73823</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>16425461209.68378</v>
+        <v>16572140855.31125</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>16749421459.59843</v>
+        <v>16904772550.80546</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>17080741213.34082</v>
+        <v>17245085453.42039</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>17419644362.02788</v>
+        <v>17593311016.30291</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>17766363562.86797</v>
+        <v>17949691816.73513</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>18121141689.72596</v>
+        <v>18314475917.28762</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>18484549197.34234</v>
+        <v>18688577279.19987</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>18856677472.71529</v>
+        <v>19071925483.32333</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>19237804465.77164</v>
+        <v>19464810455.40998</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>19628213344.43008</v>
+        <v>19867528936.12914</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>20028204247.56702</v>
+        <v>20280401266.93403</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>20438084492.106</v>
+        <v>20703749767.60201</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>20858178118.87569</v>
+        <v>21137915522.32504</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>21288818411.67458</v>
+        <v>21583250886.61796</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>21730353373.72015</v>
+        <v>22040122150.92722</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>22183149650.38875</v>
+        <v>22508914840.31313</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>22647586552.5059</v>
+        <v>22990028123.77624</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>23124058027.17266</v>
+        <v>23483878067.07831</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>23612982717.80048</v>
+        <v>23990900607.64462</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>24114789768.60268</v>
+        <v>24511554006.43541</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>24629930829.4412</v>
+        <v>25046310529.93528</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>25154157038.23086</v>
+        <v>25590221618.32973</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>25690444543.09094</v>
+        <v>26146673329.84943</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>26239241294.46952</v>
+        <v>26716123542.18535</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>26801421356.2697</v>
+        <v>27299472150.83367</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>27377086553.34954</v>
+        <v>27896831522.89688</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>27966758940.2952</v>
+        <v>28508738249.56108</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>28570984597.3532</v>
+        <v>29135758356.99216</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>29190342078.1974</v>
+        <v>29778492460.58963</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>29825452421.98513</v>
+        <v>30437576116.97734</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>30476961594.81969</v>
+        <v>31113684295.95957</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>31160200207.87283</v>
+        <v>31818647693.34603</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>31868306809.66457</v>
+        <v>32547455268.78735</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>32602345524.59476</v>
+        <v>33301135214.75039</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>33363463335.96256</v>
+        <v>34080781345.27859</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>34152878746.78062</v>
+        <v>34887567599.02579</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>34971904954.99924</v>
+        <v>35722755274.25705</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>35821184287.10986</v>
+        <v>36586910065.2108</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>36693186648.93663</v>
+        <v>37472158834.8584</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>37562658395.52034</v>
+        <v>38352318823.51803</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>38391830627.48156</v>
+        <v>39188255863.75554</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>39103902975.70798</v>
+        <v>39906608608.78679</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>39690319454.50933</v>
+        <v>40496189707.92886</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>40137571850.40932</v>
+        <v>40943560474.10634</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>40446047601.97616</v>
+        <v>41249491926.27126</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>40626598249.8893</v>
+        <v>41425382197.96088</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>40696653651.31335</v>
+        <v>41489251540.30271</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>40676846455.00385</v>
+        <v>41462309190.18568</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>40588510486.26282</v>
+        <v>41366396650.42364</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>40452039432.82524</v>
+        <v>41222329673.35419</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>40285942328.55943</v>
+        <v>41048955780.10298</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>40016604487.61331</v>
+        <v>40761892607.7063</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>39700579179.29012</v>
+        <v>40422736569.43626</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>39353997477.00104</v>
+        <v>40048315462.7346</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>38990543308.59343</v>
+        <v>39652906806.82968</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>38621662976.61324</v>
+        <v>39248407154.5446</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>38256887888.3644</v>
+        <v>38844644477.88108</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>37904274384.08511</v>
+        <v>38449784832.45086</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>37570973676.57726</v>
+        <v>38070829053.55596</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>37264013663.02453</v>
+        <v>37714301938.05836</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>36991681636.81981</v>
+        <v>37387376034.99716</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>36797084825.55191</v>
+        <v>37126498434.7015</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>36696837532.23262</v>
+        <v>36944015728.92542</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>36642915495.68866</v>
+        <v>36802183812.06274</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>36625843449.39326</v>
+        <v>36693503305.56223</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>36637729373.67175</v>
+        <v>36611641398.95427</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>36672042175.77438</v>
+        <v>36551275791.16177</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>36720048122.12951</v>
+        <v>36504645169.40622</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>36741322866.00594</v>
+        <v>36432501527.24667</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>36640743349.74838</v>
+        <v>36241969839.48366</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>36309682699.37748</v>
+        <v>35827740281.51431</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>35678101028.57784</v>
+        <v>35123123826.40776</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>34733172222.87802</v>
+        <v>34117698825.55042</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>33509794275.13298</v>
+        <v>32847354787.19572</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>32070912193.95824</v>
+        <v>31374688989.06987</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>30489223542.62979</v>
+        <v>29771080125.76349</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>28834525848.8805</v>
+        <v>28104448001.93872</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>27166716946.40096</v>
+        <v>26432605382.4517</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>25533050868.59618</v>
+        <v>24800797930.07012</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>23968084865.62639</v>
+        <v>23241766107.90502</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>22495045896.82506</v>
+        <v>21777216090.07477</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>21127792717.29951</v>
+        <v>20419771649.42983</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>19872865567.75044</v>
+        <v>19175031691.51325</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>18731371888.22023</v>
+        <v>18043399160.82869</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>17700557501.40955</v>
+        <v>17021630314.0153</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>16775104351.43961</v>
+        <v>16104067432.79889</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>15948122346.5464</v>
+        <v>15283619303.07804</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>15211867573.37225</v>
+        <v>14552439337.32587</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>14558284891.14569</v>
+        <v>13902429022.19235</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>13979371673.12635</v>
+        <v>13325601034.1503</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>13467434978.04036</v>
+        <v>12814306228.31189</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>13015228952.16254</v>
+        <v>12361356778.96693</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>12616051090.43684</v>
+        <v>11960128277.08049</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>12263772593.00329</v>
+        <v>11604572999.89599</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>11952850602.13253</v>
+        <v>11289236394.46915</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>11678308749.20046</v>
+        <v>11009213369.061</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>11435708814.57113</v>
+        <v>10760139398.89507</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>11221095681.14235</v>
+        <v>10538140758.42246</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>11030979991.22792</v>
+        <v>10339791689.68412</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>10862282982.73563</v>
+        <v>10162085209.57757</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>204921789.6203947</v>
+        <v>161333614.0759829</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/energy_use_SFH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/energy_use_SFH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>320832683.6293451</v>
+        <v>176457951.9162543</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>543683568.9383787</v>
+        <v>299025967.0485092</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>705026227.367323</v>
+        <v>387764540.3603849</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819004798.7871816</v>
+        <v>450452669.8438839</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897279203.132923</v>
+        <v>493503532.9210405</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>948683306.8596914</v>
+        <v>521775846.5592073</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980023239.4740628</v>
+        <v>539013044.5301551</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>996530635.2514576</v>
+        <v>548092107.668923</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1002215090.413253</v>
+        <v>551218494.63842</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1000138528.184327</v>
+        <v>550076642.2618529</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>992630376.5649307</v>
+        <v>545947163.2236661</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>981452096.1347277</v>
+        <v>539799075.2234254</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>967927119.3969524</v>
+        <v>532360431.3512471</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953042084.9786484</v>
+        <v>524173546.3835164</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937524294.5563773</v>
+        <v>515638975.8569094</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>921902620.5509622</v>
+        <v>507047121.2556146</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>906554575.4054599</v>
+        <v>498605368.38407</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>891741253.5737877</v>
+        <v>490457923.8681079</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>877637500.594054</v>
+        <v>482701208.1152577</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>864353454.2639425</v>
+        <v>475395156.8577317</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>851950329.0125175</v>
+        <v>468573397.5775556</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>840453140.8286724</v>
+        <v>462250059.8493025</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>829862410.6254325</v>
+        <v>456425339.6149201</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>820158887.4171901</v>
+        <v>451088589.7846206</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>811312045.2084663</v>
+        <v>446222651.5220402</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>803282200.1318997</v>
+        <v>441806171.1435871</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>796025343.9345939</v>
+        <v>437814746.1119272</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>789494836.9723977</v>
+        <v>434223109.8687769</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>783642584.5351431</v>
+        <v>431004295.1508185</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>778421195.8768314</v>
+        <v>428132409.2943134</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>773784328.4904515</v>
+        <v>425582432.9840421</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>769688546.6884012</v>
+        <v>423329516.2197678</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>766091280.6238554</v>
+        <v>421351454.9057027</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>762952964.9474822</v>
+        <v>419625581.6405653</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>760237204.529936</v>
+        <v>418132041.709063</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>757909655.7883259</v>
+        <v>416851519.7363951</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>755938214.4875395</v>
+        <v>415767662.3020656</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>754293721.9092604</v>
+        <v>414863048.7489735</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>752949312.7676152</v>
+        <v>414123986.309943</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>751880848.7886927</v>
+        <v>413536515.9562929</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>751065670.5904413</v>
+        <v>413088447.9028727</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>750483601.7851669</v>
+        <v>412768106.2184888</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>750115689.82935</v>
+        <v>412566006.4589693</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>749944840.8343694</v>
+        <v>412472108.5052615</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>749955943.9535385</v>
+        <v>412477858.5543067</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>750134497.5483384</v>
+        <v>412576282.6792486</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>750468267.346806</v>
+        <v>412759470.6436436</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>750945508.0147091</v>
+        <v>413022121.3915059</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>751555455.2626195</v>
+        <v>413358140.4965709</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>752289738.1217983</v>
+        <v>413762482.4607639</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>753139319.5361501</v>
+        <v>414229516.5931035</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>754096992.5351295</v>
+        <v>414755968.4239311</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>755154874.9855461</v>
+        <v>415338571.6120818</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>756308084.5837587</v>
+        <v>415972866.3446266</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>757550176.5910543</v>
+        <v>416656313.7065665</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>758876384.4475913</v>
+        <v>417386167.9880645</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>760281412.5962405</v>
+        <v>418159974.4036821</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>761762062.1926886</v>
+        <v>418974754.8515918</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>763313987.7609446</v>
+        <v>419829170.9755239</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>764934326.8704726</v>
+        <v>420720852.4462495</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>766620504.6181158</v>
+        <v>421648814.7359372</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>768369843.9761165</v>
+        <v>422611708.927172</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>770179726.0675938</v>
+        <v>423608223.9327038</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>772047734.4661999</v>
+        <v>424636467.7553445</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>773972566.5790079</v>
+        <v>425696278.871001</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>775952257.6768795</v>
+        <v>426786074.136685</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>777986143.5067421</v>
+        <v>427905958.6137171</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>780071380.2881181</v>
+        <v>429054011.1814067</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>782208274.579893</v>
+        <v>430229911.7087038</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>784395310.7293532</v>
+        <v>431433165.8240107</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>786631465.5456027</v>
+        <v>432664340.1367074</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>788916446.6815866</v>
+        <v>433921833.3599676</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>791249019.0182581</v>
+        <v>435205640.3568087</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>793628802.1075795</v>
+        <v>436515656.0983549</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>796055759.740387</v>
+        <v>437851493.7040353</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>798529264.8446801</v>
+        <v>439212820.1531971</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>801048450.4736011</v>
+        <v>440599422.3752252</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>803613184.2237847</v>
+        <v>442011063.5524056</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>806223946.7820215</v>
+        <v>443447991.5123991</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>808879954.3076305</v>
+        <v>444909454.6380911</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>811581303.3843639</v>
+        <v>446395544.7299273</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>814327659.0884874</v>
+        <v>447906634.8050544</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>817120133.9653589</v>
+        <v>449442090.6922197</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>819956428.9828418</v>
+        <v>451001894.1783384</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>822837208.6717503</v>
+        <v>452587010.978581</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>825763395.6772486</v>
+        <v>454197334.7154202</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>828733572.218801</v>
+        <v>455831884.8775792</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>831748729.0416982</v>
+        <v>457490854.9534469</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>834809322.0662824</v>
+        <v>459174633.1963089</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>837915254.2491691</v>
+        <v>460883060.0734919</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>841065660.7309284</v>
+        <v>462616110.5870689</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>844262170.0642986</v>
+        <v>464374571.0869839</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>847502973.3421254</v>
+        <v>466157838.2171621</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>850789248.1987039</v>
+        <v>467965785.8291762</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>854120105.9605982</v>
+        <v>469797513.1694354</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>857495643.1825938</v>
+        <v>471654710.3175163</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>860916172.1004753</v>
+        <v>473536494.4916843</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>864381622.0801623</v>
+        <v>475442985.1569877</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>867892026.8395512</v>
+        <v>477374105.9818461</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>871445943.3124588</v>
+        <v>479330091.3508222</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>875045045.3758259</v>
+        <v>481310331.861344</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>878688193.5646372</v>
+        <v>483315317.4137437</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>882374818.761668</v>
+        <v>485344596.9995273</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>886106023.1035231</v>
+        <v>487397679.9636538</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>889880702.0391018</v>
+        <v>489475409.6015839</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>893698695.3743135</v>
+        <v>491576931.1183516</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>897559198.9521784</v>
+        <v>493701771.6103851</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>901462924.4908555</v>
+        <v>495849257.1985958</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>905408249.9755499</v>
+        <v>498019733.3222932</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>909395382.1034172</v>
+        <v>500213906.9507883</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>913423669.7102401</v>
+        <v>502430983.3973305</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>917492370.6765049</v>
+        <v>504669070.1116637</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>921601155.272404</v>
+        <v>506929664.4962125</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>925749788.8602355</v>
+        <v>509212060.9986465</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>929937468.49072</v>
+        <v>511515780.2451865</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>934163411.2127433</v>
+        <v>513840737.2478815</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>938426577.1607488</v>
+        <v>516185984.8176445</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>942726359.3365871</v>
+        <v>518552154.4726911</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>947062040.1862607</v>
+        <v>520938221.8249016</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>951432732.1620554</v>
+        <v>523343420.5276664</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>955837068.6290215</v>
+        <v>525766984.7309943</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>960275111.9353689</v>
+        <v>528209449.5818053</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>964745453.6829661</v>
+        <v>530669261.1211135</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>969246846.0120201</v>
+        <v>533146854.0029674</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>973778545.7448004</v>
+        <v>535640194.0273566</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>978339997.2138005</v>
+        <v>538149448.5615404</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>982929906.7279254</v>
+        <v>540674451.3420504</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>987546614.5527565</v>
+        <v>543214624.9452326</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>992189371.9356829</v>
+        <v>545769154.5474751</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>996857367.1873202</v>
+        <v>548337072.0779687</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1001549114.492108</v>
+        <v>550917973.5203508</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1006263804.016737</v>
+        <v>553512649.3146377</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1011000611.110556</v>
+        <v>556119535.0484209</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1015758883.897527</v>
+        <v>558737902.6524844</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1020537539.872285</v>
+        <v>561367362.3105721</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1025334638.488806</v>
+        <v>564007588.3944304</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1030149996.237325</v>
+        <v>566657332.6379468</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1034982502.94555</v>
+        <v>569316913.5714279</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1039831880.630353</v>
+        <v>571985054.2705294</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1044697577.801729</v>
+        <v>574661874.0533047</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1049578281.393858</v>
+        <v>577347537.2589236</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1054473600.488659</v>
+        <v>580041779.4814882</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1059384067.899951</v>
+        <v>582743630.0038074</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1064308678.348072</v>
+        <v>585453810.3281393</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1069247222.100965</v>
+        <v>588171576.6691861</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1074200312.153075</v>
+        <v>590897187.1987077</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1079167034.352395</v>
+        <v>593631035.273096</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1084147991.123964</v>
+        <v>596371703.1228534</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1089143079.60378</v>
+        <v>599120504.6910335</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1094153560.350338</v>
+        <v>601877586.7182524</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1099179901.272234</v>
+        <v>604643274.495908</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1104223396.615363</v>
+        <v>607418706.8039639</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1109284114.887313</v>
+        <v>610203718.7511187</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1114363814.623621</v>
+        <v>612999358.6074624</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1119463595.623472</v>
+        <v>615806070.8515373</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1124585902.692801</v>
+        <v>618624521.2447153</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1129730894.781516</v>
+        <v>621456146.266559</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1134902330.092355</v>
+        <v>624301629.9625001</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1140101234.225875</v>
+        <v>627162425.890736</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1145329827.847866</v>
+        <v>630039882.3513825</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1150590356.224264</v>
+        <v>632934356.9967171</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1155887139.550074</v>
+        <v>635849098.7305893</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1161221455.168866</v>
+        <v>638784862.2847214</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1166596685.226055</v>
+        <v>641742482.0348504</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1172016802.872653</v>
+        <v>644725819.9458139</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1177484327.747462</v>
+        <v>647734287.9686497</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1183003478.599682</v>
+        <v>650771703.7271391</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1188577788.035978</v>
+        <v>653839022.9449497</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1194211095.85482</v>
+        <v>656939669.4470539</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1199907819.681182</v>
+        <v>660074795.3635426</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1205671466.476532</v>
+        <v>663246547.478405</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1211506080.08209</v>
+        <v>666457320.4314189</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1217417188.830701</v>
+        <v>669709449.1104873</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1223408919.142153</v>
+        <v>673006822.6657867</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1229486519.568593</v>
+        <v>676350739.7155666</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1235652819.538308</v>
+        <v>679743909.7535046</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1241914804.485607</v>
+        <v>683190219.321215</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1248276430.548904</v>
+        <v>686690663.4082291</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1254743207.536293</v>
+        <v>690249571.4971693</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1261320171.47746</v>
+        <v>693869308.0067152</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1268012219.431098</v>
+        <v>697552350.2227504</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1274826268.926373</v>
+        <v>701301803.6859961</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1281766979.191756</v>
+        <v>705121258.8353307</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1288839359.689478</v>
+        <v>709014046.3522103</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1296049516.771633</v>
+        <v>712982558.1323545</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1303403770.790087</v>
+        <v>717030177.1548752</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1310907274.01427</v>
+        <v>721160266.6619897</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1318566755.655625</v>
+        <v>725375746.0260571</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1326388499.136126</v>
+        <v>729678434.64591</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1334377638.733737</v>
+        <v>734075421.2923222</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1342541249.882944</v>
+        <v>738568383.6500947</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1350885188.435004</v>
+        <v>743160967.6170096</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1359416171.400425</v>
+        <v>747855622.3948622</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1368141734.008108</v>
+        <v>752657535.7208365</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1377067812.472635</v>
+        <v>757570006.042662</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1386202699.735112</v>
+        <v>762597151.6234024</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1395551423.40055</v>
+        <v>767742026.9118183</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1405121813.607249</v>
+        <v>773009365.591303</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1414922263.987684</v>
+        <v>778402664.7883159</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1424959305.009255</v>
+        <v>783926911.249671</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1435241694.082713</v>
+        <v>789585589.2733015</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1445775973.620147</v>
+        <v>795382371.6121786</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1456570523.666315</v>
+        <v>801323482.4720855</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1467634392.534004</v>
+        <v>807412194.296483</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1478975968.482968</v>
+        <v>813653659.6441444</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1490602668.812675</v>
+        <v>820053354.6124957</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1502524799.636496</v>
+        <v>826614213.5386038</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1514750896.696215</v>
+        <v>833342489.9879069</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1527290037.130324</v>
+        <v>840242819.8908347</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1540151816.381321</v>
+        <v>847320704.4161122</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1553345028.433429</v>
+        <v>854581575.1523492</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1566881331.064074</v>
+        <v>862029945.1327573</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1580769092.432836</v>
+        <v>869672536.6917185</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1595018808.3524</v>
+        <v>877514637.5087852</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1609642396.876194</v>
+        <v>885562321.5754826</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1624650988.17964</v>
+        <v>893821508.8273773</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1640054982.404366</v>
+        <v>902298563.9078224</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1655866264.605089</v>
+        <v>910998452.4936625</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1672095528.382785</v>
+        <v>919930152.7007653</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1688754919.944471</v>
+        <v>929098140.9319403</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1705856912.769312</v>
+        <v>938509661.9031746</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1723414620.17989</v>
+        <v>948171557.8569007</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1741440725.183285</v>
+        <v>958090796.4427094</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1759947695.84816</v>
+        <v>968274225.3173132</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1778948585.008741</v>
+        <v>978730502.2457995</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1798457639.312572</v>
+        <v>989465871.8227062</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1818488855.073313</v>
+        <v>1000487852.780719</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1839056261.307101</v>
+        <v>1011805970.587862</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1860174823.747348</v>
+        <v>1023426075.220151</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1881858532.702322</v>
+        <v>1035357698.876846</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1904124621.618688</v>
+        <v>1047608755.683886</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1926985167.062189</v>
+        <v>1060187321.811259</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1950458644.981995</v>
+        <v>1073103452.944369</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1974559218.219373</v>
+        <v>1086364928.015782</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1999305377.389629</v>
+        <v>1099980922.256836</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2024712902.252642</v>
+        <v>1113960420.460771</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2050798431.802059</v>
+        <v>1128313398.937002</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2077581434.392832</v>
+        <v>1143049667.916685</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2105077651.701063</v>
+        <v>1158177579.583402</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2133305399.926037</v>
+        <v>1173708022.41945</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2162283908.245737</v>
+        <v>1189652144.905309</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2192031306.11341</v>
+        <v>1206019544.495125</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2222567984.474957</v>
+        <v>1222819684.257553</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2253912649.745049</v>
+        <v>1240063856.72824</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2286085385.522456</v>
+        <v>1257763562.373686</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2319107214.559227</v>
+        <v>1275931508.633592</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2352998174.556345</v>
+        <v>1294577783.051069</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2387779704.288391</v>
+        <v>1313712139.349321</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2423473602.224041</v>
+        <v>1333349660.391406</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2460101382.901217</v>
+        <v>1353499295.12593</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2497686104.764171</v>
+        <v>1374178237.39651</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2536250327.179541</v>
+        <v>1395394362.053137</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2575817008.674212</v>
+        <v>1417162920.509463</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2616410428.408576</v>
+        <v>1439495226.142487</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2658054241.089703</v>
+        <v>1462406707.834435</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2700774692.8044</v>
+        <v>1485908034.920981</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2744594786.639007</v>
+        <v>1510015482.280327</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2789539990.800349</v>
+        <v>1534741671.632022</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2835639580.925491</v>
+        <v>1560102279.012724</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2882918644.166717</v>
+        <v>1586111362.865478</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>2931404250.056732</v>
+        <v>1612784092.23097</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2981124220.769243</v>
+        <v>1640136354.272816</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3032106853.391906</v>
+        <v>1668182906.56835</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>3084381336.495701</v>
+        <v>1696939612.13547</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3137977214.609028</v>
+        <v>1726422749.812349</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3192923763.715858</v>
+        <v>1756649365.036398</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3249250482.290567</v>
+        <v>1787635806.158347</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3306992759.844592</v>
+        <v>1819399930.776184</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>3366179970.650125</v>
+        <v>1851958321.761299</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3426845708.152179</v>
+        <v>1885329132.137106</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3489021958.517479</v>
+        <v>1919532337.069093</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>3552744373.013735</v>
+        <v>1954585337.662289</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>3618046602.710989</v>
+        <v>1990507097.540207</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3684964828.426825</v>
+        <v>2027318166.897348</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>3753534657.996465</v>
+        <v>2065037461.240351</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>3823794466.406458</v>
+        <v>2103685628.385842</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>3895781334.688978</v>
+        <v>2143282305.135448</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>3969534095.650112</v>
+        <v>2183851072.946911</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4045092196.35963</v>
+        <v>2225413344.823607</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>4122496960.8299</v>
+        <v>2267990794.331093</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>4201788665.195078</v>
+        <v>2311605942.896164</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4283010893.911736</v>
+        <v>2356282983.223853</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4366207304.612661</v>
+        <v>2402043918.052493</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4451421409.152271</v>
+        <v>2448915508.89982</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4538699226.001583</v>
+        <v>2496923500.478505</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4628087057.452247</v>
+        <v>2546089488.51217</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4719633165.002514</v>
+        <v>2596444090.239007</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>4813386955.77563</v>
+        <v>2648011289.784314</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>4909398072.785992</v>
+        <v>2700820446.309979</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>5007716706.633301</v>
+        <v>2754897491.071284</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5108395500.62355</v>
+        <v>2810275132.994972</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5211490353.094578</v>
+        <v>2866979238.595462</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5317055630.539367</v>
+        <v>2925042736.993287</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5425147898.75552</v>
+        <v>2984496882.735734</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>5535823922.655643</v>
+        <v>3045370666.285125</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5649146911.080601</v>
+        <v>3107700655.394271</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5765174995.883694</v>
+        <v>3171518620.472177</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5883973918.630668</v>
+        <v>3236859399.959856</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>6005606198.329446</v>
+        <v>3303760612.959435</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>6130139926.040077</v>
+        <v>3372256028.132004</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6257641575.339355</v>
+        <v>3442381941.584273</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6385869114.805528</v>
+        <v>3512910734.50428</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6516129578.243227</v>
+        <v>3584555905.983273</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6648468832.905994</v>
+        <v>3657344107.275531</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>6782941245.706347</v>
+        <v>3731305075.702945</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6919598798.291002</v>
+        <v>3806468679.800125</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>7058494737.586756</v>
+        <v>3882862312.164623</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>7199682202.228195</v>
+        <v>3960516149.154913</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>7343222600.361702</v>
+        <v>4039464208.048369</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>7489171019.200836</v>
+        <v>4119735917.129042</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>7637588798.290782</v>
+        <v>4201366964.401301</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>7788536214.245218</v>
+        <v>4284387866.502783</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>7942076331.083033</v>
+        <v>4368835935.102097</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>8098276201.853456</v>
+        <v>4454747944.437763</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>8257202127.164759</v>
+        <v>4542158202.830487</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>8418923577.414961</v>
+        <v>4631103275.857863</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>8583509858.321607</v>
+        <v>4721626165.148641</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>8751034104.763681</v>
+        <v>4813765722.541456</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>8921573491.251329</v>
+        <v>4907562209.034718</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9095205707.257351</v>
+        <v>5003059906.442801</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9272008009.542561</v>
+        <v>5100300517.066927</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9452065281.533686</v>
+        <v>5199329446.016441</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9635461218.826473</v>
+        <v>5300195727.460501</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>9822282700.898525</v>
+        <v>5402948152.083224</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>10012622478.37793</v>
+        <v>5507634380.946594</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>10206572881.41971</v>
+        <v>5614302493.463202</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>10404226820.21857</v>
+        <v>5723011387.660942</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>10605684294.07867</v>
+        <v>5833812941.289371</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>10811049784.40886</v>
+        <v>5946761784.844069</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>11020424252.33796</v>
+        <v>6061918208.294804</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>11233919364.8312</v>
+        <v>6179338008.449124</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11451648136.61917</v>
+        <v>6299086486.289141</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>11673724030.4119</v>
+        <v>6421227366.715107</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>11900267660.82331</v>
+        <v>6545824971.192794</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>12131402397.86943</v>
+        <v>6672944804.970401</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>12367254231.69739</v>
+        <v>6802660583.255257</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>12607955179.00773</v>
+        <v>6935044074.298243</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>12853641727.36807</v>
+        <v>7070169718.629631</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>13104456621.02916</v>
+        <v>7208112923.549122</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>13360542995.81478</v>
+        <v>7348957614.593982</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>13622049485.46105</v>
+        <v>7492785161.435617</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>13889132979.0709</v>
+        <v>7639678885.241313</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14161953247.93431</v>
+        <v>7789726954.888515</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14440674319.88597</v>
+        <v>7943022958.694237</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14725468418.19143</v>
+        <v>8099656347.415995</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>15016510954.53125</v>
+        <v>8259730043.379133</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>15313989986.7804</v>
+        <v>8423341106.135232</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>15618093954.04659</v>
+        <v>8590594357.845703</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>15929015595.72492</v>
+        <v>8761598166.30127</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>16246959683.73823</v>
+        <v>8936465953.29496</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>16572140855.31125</v>
+        <v>9115311567.803825</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>16904772550.80546</v>
+        <v>9298257878.880634</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>17245085453.42039</v>
+        <v>9485424377.676859</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>17593311016.30291</v>
+        <v>9676942909.445187</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>17949691816.73513</v>
+        <v>9872947729.406685</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>18314475917.28762</v>
+        <v>10073574224.81887</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>18688577279.19987</v>
+        <v>10279325116.51797</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>19071925483.32333</v>
+        <v>10490162218.28854</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>19464810455.40998</v>
+        <v>10706244114.86433</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>19867528936.12914</v>
+        <v>10927735692.70711</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>20280401266.93403</v>
+        <v>11154809250.26011</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>20703749767.60201</v>
+        <v>11387644623.97968</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>21137915522.32504</v>
+        <v>11626431517.58892</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>21583250886.61796</v>
+        <v>11871362080.94988</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>22040122150.92722</v>
+        <v>12122636003.54384</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>22508914840.31313</v>
+        <v>12380466953.59603</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>22990028123.77624</v>
+        <v>12645074370.33446</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>23483878067.07831</v>
+        <v>12916687592.5314</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>23990900607.64462</v>
+        <v>13195546158.65542</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>24511554006.43541</v>
+        <v>13481900415.61717</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>25046310529.93528</v>
+        <v>13776011578.64161</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>25590221618.32973</v>
+        <v>14075158479.95717</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>26146673329.84943</v>
+        <v>14381201267.90539</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>26716123542.18535</v>
+        <v>14694394198.27159</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>27299472150.83367</v>
+        <v>15015225243.30906</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>27896831522.89688</v>
+        <v>15343762140.17858</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>28508738249.56108</v>
+        <v>15680300069.25786</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>29135758356.99216</v>
+        <v>16025150077.5308</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>29778492460.58963</v>
+        <v>16378643589.37771</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>30437576116.97734</v>
+        <v>16741129531.55394</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>31113684295.95957</v>
+        <v>17112978453.47021</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>31818647693.34603</v>
+        <v>17500697141.71965</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>32547455268.78735</v>
+        <v>17901530639.41035</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>33301135214.75039</v>
+        <v>18316042930.92529</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>34080781345.27859</v>
+        <v>18744835079.62518</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>34887567599.02579</v>
+        <v>19188556256.72184</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>35722755274.25705</v>
+        <v>19679847365.55902</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>36586910065.2108</v>
+        <v>20202623789.5269</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>37472158834.8584</v>
+        <v>20753856019.99387</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>38352318823.51803</v>
+        <v>21321990141.67669</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>39188255863.75554</v>
+        <v>21889416124.71362</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>39906608608.78679</v>
+        <v>22403262617.79168</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>40496189707.92886</v>
+        <v>22865937546.8485</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>40943560474.10634</v>
+        <v>23268908587.33424</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>41249491926.27126</v>
+        <v>23610238225.26783</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>41425382197.96088</v>
+        <v>23893262830.29799</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>41489251540.30271</v>
+        <v>24124926430.82415</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>41462309190.18568</v>
+        <v>24314241765.25021</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>41366396650.42364</v>
+        <v>24471074485.25926</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>41222329673.35419</v>
+        <v>24605301034.69932</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>41048955780.10298</v>
+        <v>24726288567.50959</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>40761892607.7063</v>
+        <v>24741768276.72356</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>40422736569.43626</v>
+        <v>24707014587.29932</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>40048315462.7346</v>
+        <v>24633961654.30794</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>39652906806.82968</v>
+        <v>24533230784.36732</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>39248407154.5446</v>
+        <v>24414124793.88937</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>38844644477.88108</v>
+        <v>24284733419.43191</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>38449784832.45086</v>
+        <v>24152177870.23462</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>38070829053.55596</v>
+        <v>24022941412.5499</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>37714301938.05836</v>
+        <v>23903461050.73541</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>37387376034.99716</v>
+        <v>23801118914.53946</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>37126498434.7015</v>
+        <v>23752788516.19056</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>36944015728.92542</v>
+        <v>23771402499.44581</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>36802183812.06274</v>
+        <v>23819906859.53962</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>36693503305.56223</v>
+        <v>23891542949.0889</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>36611641398.95427</v>
+        <v>23980750688.00551</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>36551275791.16177</v>
+        <v>24082984290.53928</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>36504645169.40622</v>
+        <v>24192350148.10149</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>36432501527.24667</v>
+        <v>24281844331.04657</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>36241969839.48366</v>
+        <v>24287632138.12484</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>35827740281.51431</v>
+        <v>24136129767.32555</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>35123123826.40776</v>
+        <v>23779004623.43476</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>34117698825.55042</v>
+        <v>23206165298.69995</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>32847354787.19572</v>
+        <v>22439902515.70296</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>31374688989.06987</v>
+        <v>21521891600.47131</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>29771080125.76349</v>
+        <v>20500933409.36682</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>28104448001.93872</v>
+        <v>19424321223.95302</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>26432605382.4517</v>
+        <v>18332981692.67078</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>24800797930.07012</v>
+        <v>17259495439.60363</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>23241766107.90502</v>
+        <v>16227936206.26147</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>21777216090.07477</v>
+        <v>15254731803.80456</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>20419771649.42983</v>
+        <v>14349927377.02803</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>19175031691.51325</v>
+        <v>13518562188.15435</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>18043399160.82869</v>
+        <v>12761907526.90144</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>17021630314.0153</v>
+        <v>12078549434.05006</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>16104067432.79889</v>
+        <v>11465268395.7449</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>15283619303.07804</v>
+        <v>10917706829.31154</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>14552439337.32587</v>
+        <v>10430877159.91087</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>13902429022.19235</v>
+        <v>9999531429.530464</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>13325601034.1503</v>
+        <v>9618415687.526512</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>12814306228.31189</v>
+        <v>9282455983.073681</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>12361356778.96693</v>
+        <v>8986844186.591637</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>11960128277.08049</v>
+        <v>8727123561.347092</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>11604572999.89599</v>
+        <v>8499203168.85235</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>11289236394.46915</v>
+        <v>8299380849.412382</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>11009213369.061</v>
+        <v>8124319685.007588</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>10760139398.89507</v>
+        <v>7971042846.380408</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>10538140758.42246</v>
+        <v>7836885206.220637</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>10339791689.68412</v>
+        <v>7719501188.616909</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>10162085209.57757</v>
+        <v>7616822589.862211</v>
       </c>
     </row>
     <row r="452">
